--- a/datakomisiterapistahunan.xlsx
+++ b/datakomisiterapistahunan.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,17 +745,17 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M019</t>
         </is>
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>Paket Sejahteramana</t>
+          <t>Paket Jamail</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>500.000</t>
+          <t>350.000</t>
         </is>
       </c>
       <c r="F10" s="8" t="n">
@@ -763,7 +763,7 @@
       </c>
       <c r="G10" s="7" t="inlineStr">
         <is>
-          <t>400.000</t>
+          <t>150.000</t>
         </is>
       </c>
       <c r="H10" s="6" t="inlineStr">
@@ -785,17 +785,17 @@
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>M019</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>Paket Jamail</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>350.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F11" s="8" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="G11" s="7" t="inlineStr">
         <is>
-          <t>150.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H11" s="6" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>kalomania</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>225.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H12" s="6" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>Paket Sejahteramana</t>
+          <t>kalomania</t>
         </is>
       </c>
       <c r="E14" s="7" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="G14" s="7" t="inlineStr">
         <is>
-          <t>400.000</t>
+          <t>225.000</t>
         </is>
       </c>
       <c r="H14" s="6" t="inlineStr">
@@ -945,12 +945,12 @@
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>kalomania</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="G15" s="7" t="inlineStr">
         <is>
-          <t>225.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H15" s="6" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>Paket Sejahteramana</t>
+          <t>kalomania</t>
         </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G17" s="7" t="inlineStr">
         <is>
-          <t>400.000</t>
+          <t>225.000</t>
         </is>
       </c>
       <c r="H17" s="6" t="inlineStr">
@@ -1185,25 +1185,25 @@
       </c>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>P003</t>
+          <t>P001</t>
         </is>
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>Hot Stone</t>
+          <t>Traditional Massage 30 Min</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>350.000</t>
+          <t>200.000</t>
         </is>
       </c>
       <c r="F21" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="7" t="inlineStr">
         <is>
-          <t>70.000</t>
+          <t>20.000</t>
         </is>
       </c>
       <c r="H21" s="6" t="inlineStr">
@@ -1225,25 +1225,25 @@
       </c>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>P001</t>
+          <t>M019</t>
         </is>
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>Traditional Massage 30 Min</t>
+          <t>Paket Jamail</t>
         </is>
       </c>
       <c r="E22" s="7" t="inlineStr">
         <is>
-          <t>200.000</t>
+          <t>350.000</t>
         </is>
       </c>
       <c r="F22" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="7" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>300.000</t>
         </is>
       </c>
       <c r="H22" s="6" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>M019</t>
+          <t>P003</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>Paket Jamail</t>
+          <t>Hot Stone</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="G23" s="7" t="inlineStr">
         <is>
-          <t>300.000</t>
+          <t>70.000</t>
         </is>
       </c>
       <c r="H23" s="6" t="inlineStr">
@@ -1333,75 +1333,149 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
-      <c r="F25" s="9" t="inlineStr"/>
-      <c r="G25" s="10" t="inlineStr">
-        <is>
-          <t>5.540.000</t>
-        </is>
-      </c>
-      <c r="H25" s="9" t="inlineStr"/>
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>TF0093</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>24-07-2025 22:34:21</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="inlineStr">
+        <is>
+          <t>paket holiday</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>550.000</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="inlineStr">
+        <is>
+          <t>275.000</t>
+        </is>
+      </c>
+      <c r="H25" s="6" t="inlineStr">
+        <is>
+          <t>Lola</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="n"/>
-      <c r="D26" s="6" t="n"/>
-      <c r="E26" s="6" t="n"/>
-      <c r="F26" s="6" t="n"/>
-      <c r="G26" s="6" t="n"/>
-      <c r="H26" s="6" t="n"/>
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>TF0094</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>24-07-2025 23:04:19</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H26" s="6" t="inlineStr">
+        <is>
+          <t>Lola</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>Terapis :</t>
+          <t>TF0095</t>
         </is>
       </c>
       <c r="B27" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
-        </is>
-      </c>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
-      <c r="F27" s="6" t="n"/>
-      <c r="G27" s="6" t="n"/>
-      <c r="H27" s="6" t="n"/>
+          <t>24-07-2025 23:11:22</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>paket holiday</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>550.000</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="inlineStr">
+        <is>
+          <t>275.000</t>
+        </is>
+      </c>
+      <c r="H27" s="6" t="inlineStr">
+        <is>
+          <t>Lola</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>TF0002</t>
+          <t>TF0095</t>
         </is>
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:14:12</t>
+          <t>24-07-2025 23:11:22</t>
         </is>
       </c>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M001</t>
         </is>
       </c>
       <c r="D28" s="6" t="inlineStr">
         <is>
-          <t>kalomania</t>
+          <t>paket holiday</t>
         </is>
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
-          <t>500.000</t>
+          <t>550.000</t>
         </is>
       </c>
       <c r="F28" s="8" t="n">
@@ -1409,24 +1483,24 @@
       </c>
       <c r="G28" s="7" t="inlineStr">
         <is>
-          <t>225.000</t>
+          <t>275.000</t>
         </is>
       </c>
       <c r="H28" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>TF0002</t>
+          <t>TF0096</t>
         </is>
       </c>
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:14:12</t>
+          <t>24-07-2025 23:21:16</t>
         </is>
       </c>
       <c r="C29" s="6" t="inlineStr">
@@ -1454,29 +1528,29 @@
       </c>
       <c r="H29" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>TF0002</t>
+          <t>TF0097</t>
         </is>
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:14:12</t>
+          <t>24-07-2025 23:27:44</t>
         </is>
       </c>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D30" s="6" t="inlineStr">
         <is>
-          <t>kalomania</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E30" s="7" t="inlineStr">
@@ -1489,34 +1563,34 @@
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
-          <t>225.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H30" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>TF0002</t>
+          <t>TF0100</t>
         </is>
       </c>
       <c r="B31" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:14:12</t>
+          <t>24-07-2025 23:33:28</t>
         </is>
       </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
-          <t>Paket Sejahteramana</t>
+          <t>kalomania</t>
         </is>
       </c>
       <c r="E31" s="7" t="inlineStr">
@@ -1529,34 +1603,34 @@
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
-          <t>400.000</t>
+          <t>225.000</t>
         </is>
       </c>
       <c r="H31" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>TF0002</t>
+          <t>TF0102</t>
         </is>
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:14:12</t>
+          <t>25-07-2025 00:37:55</t>
         </is>
       </c>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D32" s="6" t="inlineStr">
         <is>
-          <t>kalomania</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E32" s="7" t="inlineStr">
@@ -1569,39 +1643,39 @@
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>225.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H32" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>TF0003</t>
+          <t>TF0105</t>
         </is>
       </c>
       <c r="B33" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:45:33</t>
+          <t>26-07-2025 21:49:18</t>
         </is>
       </c>
       <c r="C33" s="6" t="inlineStr">
         <is>
-          <t>M006</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D33" s="6" t="inlineStr">
         <is>
-          <t>paket lontong</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
-          <t>6.550.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F33" s="8" t="n">
@@ -1609,64 +1683,64 @@
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
-          <t>150.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H33" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>TF0003</t>
+          <t>TF0107</t>
         </is>
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:45:33</t>
+          <t>26-07-2025 21:51:13</t>
         </is>
       </c>
       <c r="C34" s="6" t="inlineStr">
         <is>
-          <t>M006</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="D34" s="6" t="inlineStr">
         <is>
-          <t>paket lontong</t>
+          <t>kalomania</t>
         </is>
       </c>
       <c r="E34" s="7" t="inlineStr">
         <is>
-          <t>6.550.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F34" s="8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>600.000</t>
+          <t>225.000</t>
         </is>
       </c>
       <c r="H34" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>TF0003</t>
+          <t>TF0108</t>
         </is>
       </c>
       <c r="B35" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:45:33</t>
+          <t>27-07-2025 13:21:52</t>
         </is>
       </c>
       <c r="C35" s="6" t="inlineStr">
@@ -1694,19 +1768,19 @@
       </c>
       <c r="H35" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>TF0003</t>
+          <t>TF0109</t>
         </is>
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:45:33</t>
+          <t>27-07-2025 13:24:11</t>
         </is>
       </c>
       <c r="C36" s="6" t="inlineStr">
@@ -1734,69 +1808,69 @@
       </c>
       <c r="H36" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
         <is>
-          <t>TF0003</t>
+          <t>TF0110</t>
         </is>
       </c>
       <c r="B37" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:45:33</t>
+          <t>27-07-2025 13:28:09</t>
         </is>
       </c>
       <c r="C37" s="6" t="inlineStr">
         <is>
-          <t>M004</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="D37" s="6" t="inlineStr">
         <is>
-          <t>paket bajinurakaloman</t>
+          <t>kalomania</t>
         </is>
       </c>
       <c r="E37" s="7" t="inlineStr">
         <is>
-          <t>4.000.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F37" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" s="7" t="inlineStr">
         <is>
-          <t>1.200.000</t>
+          <t>225.000</t>
         </is>
       </c>
       <c r="H37" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>TF0003</t>
+          <t>TF0111</t>
         </is>
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:45:33</t>
+          <t>27-07-2025 13:29:35</t>
         </is>
       </c>
       <c r="C38" s="6" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="D38" s="6" t="inlineStr">
         <is>
-          <t>Paket Sejahteramana</t>
+          <t>kalomania</t>
         </is>
       </c>
       <c r="E38" s="7" t="inlineStr">
@@ -1809,39 +1883,39 @@
       </c>
       <c r="G38" s="7" t="inlineStr">
         <is>
-          <t>400.000</t>
+          <t>225.000</t>
         </is>
       </c>
       <c r="H38" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>TF0003</t>
+          <t>TF0112</t>
         </is>
       </c>
       <c r="B39" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:45:33</t>
+          <t>27-07-2025 13:35:17</t>
         </is>
       </c>
       <c r="C39" s="6" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M004</t>
         </is>
       </c>
       <c r="D39" s="6" t="inlineStr">
         <is>
-          <t>kalomania</t>
+          <t>paket bajinurakaloman</t>
         </is>
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t>500.000</t>
+          <t>4.000.000</t>
         </is>
       </c>
       <c r="F39" s="8" t="n">
@@ -1849,39 +1923,39 @@
       </c>
       <c r="G39" s="7" t="inlineStr">
         <is>
-          <t>225.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H39" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>TF0003</t>
+          <t>TF0113</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:45:33</t>
+          <t>27-07-2025 13:37:50</t>
         </is>
       </c>
       <c r="C40" s="6" t="inlineStr">
         <is>
-          <t>M004</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D40" s="6" t="inlineStr">
         <is>
-          <t>paket bajinurakaloman</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E40" s="7" t="inlineStr">
         <is>
-          <t>4.000.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F40" s="8" t="n">
@@ -1894,34 +1968,34 @@
       </c>
       <c r="H40" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>TF0004</t>
+          <t>TF0115</t>
         </is>
       </c>
       <c r="B41" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:48:47</t>
+          <t>27-07-2025 14:00:35</t>
         </is>
       </c>
       <c r="C41" s="6" t="inlineStr">
         <is>
-          <t>M006</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D41" s="6" t="inlineStr">
         <is>
-          <t>paket lontong</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E41" s="7" t="inlineStr">
         <is>
-          <t>6.550.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F41" s="8" t="n">
@@ -1929,144 +2003,144 @@
       </c>
       <c r="G41" s="7" t="inlineStr">
         <is>
-          <t>150.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H41" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>TF0004</t>
+          <t>TF0116</t>
         </is>
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:48:47</t>
+          <t>27-07-2025 14:05:50</t>
         </is>
       </c>
       <c r="C42" s="6" t="inlineStr">
         <is>
-          <t>M006</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D42" s="6" t="inlineStr">
         <is>
-          <t>paket lontong</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E42" s="7" t="inlineStr">
         <is>
-          <t>6.550.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F42" s="8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42" s="7" t="inlineStr">
         <is>
-          <t>600.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H42" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>TF0004</t>
+          <t>TF0116</t>
         </is>
       </c>
       <c r="B43" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:48:47</t>
+          <t>27-07-2025 14:05:50</t>
         </is>
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>M004</t>
+          <t>M006</t>
         </is>
       </c>
       <c r="D43" s="6" t="inlineStr">
         <is>
-          <t>paket bajinurakaloman</t>
+          <t>paket lontong</t>
         </is>
       </c>
       <c r="E43" s="7" t="inlineStr">
         <is>
-          <t>4.000.000</t>
+          <t>6.550.000</t>
         </is>
       </c>
       <c r="F43" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="7" t="inlineStr">
         <is>
-          <t>800.000</t>
+          <t>150.000</t>
         </is>
       </c>
       <c r="H43" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>TF0004</t>
+          <t>TF0116</t>
         </is>
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:48:47</t>
+          <t>27-07-2025 14:05:50</t>
         </is>
       </c>
       <c r="C44" s="6" t="inlineStr">
         <is>
-          <t>M004</t>
+          <t>M008</t>
         </is>
       </c>
       <c r="D44" s="6" t="inlineStr">
         <is>
-          <t>paket bajinurakaloman</t>
+          <t>lasmladamaldk</t>
         </is>
       </c>
       <c r="E44" s="7" t="inlineStr">
         <is>
-          <t>4.000.000</t>
+          <t>5.000.000</t>
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G44" s="7" t="inlineStr">
         <is>
-          <t>2.000.000</t>
+          <t>150.000</t>
         </is>
       </c>
       <c r="H44" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>TF0004</t>
+          <t>TF0120</t>
         </is>
       </c>
       <c r="B45" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:48:47</t>
+          <t>27-07-2025 14:32:49</t>
         </is>
       </c>
       <c r="C45" s="6" t="inlineStr">
@@ -2094,29 +2168,29 @@
       </c>
       <c r="H45" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>TF0004</t>
+          <t>TF0121</t>
         </is>
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:48:47</t>
+          <t>27-07-2025 14:35:46</t>
         </is>
       </c>
       <c r="C46" s="6" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="D46" s="6" t="inlineStr">
         <is>
-          <t>Paket Sejahteramana</t>
+          <t>kalomania</t>
         </is>
       </c>
       <c r="E46" s="7" t="inlineStr">
@@ -2125,43 +2199,43 @@
         </is>
       </c>
       <c r="F46" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="7" t="inlineStr">
         <is>
-          <t>400.000</t>
+          <t>450.000</t>
         </is>
       </c>
       <c r="H46" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>TF0004</t>
+          <t>TF0123</t>
         </is>
       </c>
       <c r="B47" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:48:47</t>
+          <t>27-07-2025 14:43:10</t>
         </is>
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>M007</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D47" s="6" t="inlineStr">
         <is>
-          <t>pasoaodkaosdoak</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E47" s="7" t="inlineStr">
         <is>
-          <t>600.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F47" s="8" t="n">
@@ -2169,24 +2243,24 @@
       </c>
       <c r="G47" s="7" t="inlineStr">
         <is>
-          <t>1.500.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H47" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>TF0004</t>
+          <t>TF0124</t>
         </is>
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:48:47</t>
+          <t>27-07-2025 14:48:51</t>
         </is>
       </c>
       <c r="C48" s="6" t="inlineStr">
@@ -2205,28 +2279,28 @@
         </is>
       </c>
       <c r="F48" s="8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G48" s="7" t="inlineStr">
         <is>
-          <t>1.600.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H48" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>TF0053</t>
+          <t>TF0125</t>
         </is>
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 12:58:55</t>
+          <t>27-07-2025 14:55:07</t>
         </is>
       </c>
       <c r="C49" s="6" t="inlineStr">
@@ -2254,19 +2328,19 @@
       </c>
       <c r="H49" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>TF0056</t>
+          <t>TF0128</t>
         </is>
       </c>
       <c r="B50" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 13:59:33</t>
+          <t>27-07-2025 15:12:22</t>
         </is>
       </c>
       <c r="C50" s="6" t="inlineStr">
@@ -2294,29 +2368,29 @@
       </c>
       <c r="H50" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>TF0058</t>
+          <t>TF0129</t>
         </is>
       </c>
       <c r="B51" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:05:31</t>
+          <t>27-07-2025 15:15:52</t>
         </is>
       </c>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="D51" s="6" t="inlineStr">
         <is>
-          <t>Paket Sejahteramana</t>
+          <t>kalomania</t>
         </is>
       </c>
       <c r="E51" s="7" t="inlineStr">
@@ -2329,34 +2403,34 @@
       </c>
       <c r="G51" s="7" t="inlineStr">
         <is>
-          <t>400.000</t>
+          <t>225.000</t>
         </is>
       </c>
       <c r="H51" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>TF0064</t>
+          <t>TF0130</t>
         </is>
       </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:27:59</t>
+          <t>27-07-2025 15:17:35</t>
         </is>
       </c>
       <c r="C52" s="6" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D52" s="6" t="inlineStr">
         <is>
-          <t>kalomania</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E52" s="7" t="inlineStr">
@@ -2369,39 +2443,39 @@
       </c>
       <c r="G52" s="7" t="inlineStr">
         <is>
-          <t>225.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H52" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
         <is>
-          <t>TF0073</t>
+          <t>TF0132</t>
         </is>
       </c>
       <c r="B53" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:52:39</t>
+          <t>27-07-2025 15:23:21</t>
         </is>
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>M019</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="D53" s="6" t="inlineStr">
         <is>
-          <t>Paket Jamail</t>
+          <t>kalomania</t>
         </is>
       </c>
       <c r="E53" s="7" t="inlineStr">
         <is>
-          <t>350.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F53" s="8" t="n">
@@ -2409,12 +2483,12 @@
       </c>
       <c r="G53" s="7" t="inlineStr">
         <is>
-          <t>150.000</t>
+          <t>225.000</t>
         </is>
       </c>
       <c r="H53" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Lola</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2505,7 @@
       <c r="F54" s="9" t="inlineStr"/>
       <c r="G54" s="10" t="inlineStr">
         <is>
-          <t>13.750.000</t>
+          <t>14.740.000</t>
         </is>
       </c>
       <c r="H54" s="9" t="inlineStr"/>
@@ -2454,7 +2528,7 @@
       </c>
       <c r="B56" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
       <c r="C56" s="6" t="n"/>
@@ -2467,12 +2541,12 @@
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>TF0052</t>
+          <t>TF0002</t>
         </is>
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 12:51:24</t>
+          <t>06-06-2025 08:14:12</t>
         </is>
       </c>
       <c r="C57" s="6" t="inlineStr">
@@ -2500,34 +2574,34 @@
       </c>
       <c r="H57" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
-          <t>TF0055</t>
+          <t>TF0002</t>
         </is>
       </c>
       <c r="B58" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 13:57:05</t>
+          <t>06-06-2025 08:14:12</t>
         </is>
       </c>
       <c r="C58" s="6" t="inlineStr">
         <is>
-          <t>M001</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="D58" s="6" t="inlineStr">
         <is>
-          <t>paket holiday</t>
+          <t>kalomania</t>
         </is>
       </c>
       <c r="E58" s="7" t="inlineStr">
         <is>
-          <t>550.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F58" s="8" t="n">
@@ -2535,34 +2609,34 @@
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
-          <t>275.000</t>
+          <t>225.000</t>
         </is>
       </c>
       <c r="H58" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="inlineStr">
         <is>
-          <t>TF0059</t>
+          <t>TF0002</t>
         </is>
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:12:46</t>
+          <t>06-06-2025 08:14:12</t>
         </is>
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="D59" s="6" t="inlineStr">
         <is>
-          <t>Paket Sejahteramana</t>
+          <t>kalomania</t>
         </is>
       </c>
       <c r="E59" s="7" t="inlineStr">
@@ -2575,34 +2649,34 @@
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
-          <t>400.000</t>
+          <t>225.000</t>
         </is>
       </c>
       <c r="H59" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="inlineStr">
         <is>
-          <t>TF0060</t>
+          <t>TF0002</t>
         </is>
       </c>
       <c r="B60" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:17:53</t>
+          <t>06-06-2025 08:14:12</t>
         </is>
       </c>
       <c r="C60" s="6" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="D60" s="6" t="inlineStr">
         <is>
-          <t>Paket Sejahteramana</t>
+          <t>kalomania</t>
         </is>
       </c>
       <c r="E60" s="7" t="inlineStr">
@@ -2615,34 +2689,34 @@
       </c>
       <c r="G60" s="7" t="inlineStr">
         <is>
-          <t>400.000</t>
+          <t>225.000</t>
         </is>
       </c>
       <c r="H60" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="inlineStr">
         <is>
-          <t>TF0061</t>
+          <t>TF0002</t>
         </is>
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:21:05</t>
+          <t>06-06-2025 08:14:12</t>
         </is>
       </c>
       <c r="C61" s="6" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D61" s="6" t="inlineStr">
         <is>
-          <t>kalomania</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E61" s="7" t="inlineStr">
@@ -2655,79 +2729,79 @@
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>225.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H61" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6" t="inlineStr">
         <is>
-          <t>TF0062</t>
+          <t>TF0003</t>
         </is>
       </c>
       <c r="B62" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:23:54</t>
+          <t>06-06-2025 08:45:33</t>
         </is>
       </c>
       <c r="C62" s="6" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M004</t>
         </is>
       </c>
       <c r="D62" s="6" t="inlineStr">
         <is>
-          <t>kalomania</t>
+          <t>paket bajinurakaloman</t>
         </is>
       </c>
       <c r="E62" s="7" t="inlineStr">
         <is>
-          <t>500.000</t>
+          <t>4.000.000</t>
         </is>
       </c>
       <c r="F62" s="8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
-          <t>225.000</t>
+          <t>1.200.000</t>
         </is>
       </c>
       <c r="H62" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="inlineStr">
         <is>
-          <t>TF0063</t>
+          <t>TF0003</t>
         </is>
       </c>
       <c r="B63" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:25:36</t>
+          <t>06-06-2025 08:45:33</t>
         </is>
       </c>
       <c r="C63" s="6" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M004</t>
         </is>
       </c>
       <c r="D63" s="6" t="inlineStr">
         <is>
-          <t>Paket Sejahteramana</t>
+          <t>paket bajinurakaloman</t>
         </is>
       </c>
       <c r="E63" s="7" t="inlineStr">
         <is>
-          <t>500.000</t>
+          <t>4.000.000</t>
         </is>
       </c>
       <c r="F63" s="8" t="n">
@@ -2740,69 +2814,69 @@
       </c>
       <c r="H63" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="inlineStr">
         <is>
-          <t>TF0065</t>
+          <t>TF0003</t>
         </is>
       </c>
       <c r="B64" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:29:12</t>
+          <t>06-06-2025 08:45:33</t>
         </is>
       </c>
       <c r="C64" s="6" t="inlineStr">
         <is>
-          <t>M019</t>
+          <t>M006</t>
         </is>
       </c>
       <c r="D64" s="6" t="inlineStr">
         <is>
-          <t>Paket Jamail</t>
+          <t>paket lontong</t>
         </is>
       </c>
       <c r="E64" s="7" t="inlineStr">
         <is>
-          <t>350.000</t>
+          <t>6.550.000</t>
         </is>
       </c>
       <c r="F64" s="8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
-          <t>150.000</t>
+          <t>600.000</t>
         </is>
       </c>
       <c r="H64" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="inlineStr">
         <is>
-          <t>TF0066</t>
+          <t>TF0003</t>
         </is>
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:30:00</t>
+          <t>06-06-2025 08:45:33</t>
         </is>
       </c>
       <c r="C65" s="6" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="D65" s="6" t="inlineStr">
         <is>
-          <t>Paket Sejahteramana</t>
+          <t>kalomania</t>
         </is>
       </c>
       <c r="E65" s="7" t="inlineStr">
@@ -2815,24 +2889,24 @@
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>400.000</t>
+          <t>225.000</t>
         </is>
       </c>
       <c r="H65" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="6" t="inlineStr">
         <is>
-          <t>TF0067</t>
+          <t>TF0003</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:31:00</t>
+          <t>06-06-2025 08:45:33</t>
         </is>
       </c>
       <c r="C66" s="6" t="inlineStr">
@@ -2860,34 +2934,34 @@
       </c>
       <c r="H66" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6" t="inlineStr">
         <is>
-          <t>TF0068</t>
+          <t>TF0003</t>
         </is>
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:33:27</t>
+          <t>06-06-2025 08:45:33</t>
         </is>
       </c>
       <c r="C67" s="6" t="inlineStr">
         <is>
-          <t>M019</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D67" s="6" t="inlineStr">
         <is>
-          <t>Paket Jamail</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E67" s="7" t="inlineStr">
         <is>
-          <t>350.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F67" s="8" t="n">
@@ -2895,39 +2969,39 @@
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>150.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H67" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6" t="inlineStr">
         <is>
-          <t>TF0069</t>
+          <t>TF0003</t>
         </is>
       </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:35:15</t>
+          <t>06-06-2025 08:45:33</t>
         </is>
       </c>
       <c r="C68" s="6" t="inlineStr">
         <is>
-          <t>M019</t>
+          <t>M006</t>
         </is>
       </c>
       <c r="D68" s="6" t="inlineStr">
         <is>
-          <t>Paket Jamail</t>
+          <t>paket lontong</t>
         </is>
       </c>
       <c r="E68" s="7" t="inlineStr">
         <is>
-          <t>350.000</t>
+          <t>6.550.000</t>
         </is>
       </c>
       <c r="F68" s="8" t="n">
@@ -2940,34 +3014,34 @@
       </c>
       <c r="H68" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="6" t="inlineStr">
         <is>
-          <t>TF0071</t>
+          <t>TF0003</t>
         </is>
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:46:23</t>
+          <t>06-06-2025 08:45:33</t>
         </is>
       </c>
       <c r="C69" s="6" t="inlineStr">
         <is>
-          <t>M019</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D69" s="6" t="inlineStr">
         <is>
-          <t>Paket Jamail</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E69" s="7" t="inlineStr">
         <is>
-          <t>350.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F69" s="8" t="n">
@@ -2975,79 +3049,79 @@
       </c>
       <c r="G69" s="7" t="inlineStr">
         <is>
-          <t>150.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H69" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="6" t="inlineStr">
         <is>
-          <t>TF0072</t>
+          <t>TF0004</t>
         </is>
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 14:51:13</t>
+          <t>06-06-2025 08:48:47</t>
         </is>
       </c>
       <c r="C70" s="6" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M004</t>
         </is>
       </c>
       <c r="D70" s="6" t="inlineStr">
         <is>
-          <t>kalomania</t>
+          <t>paket bajinurakaloman</t>
         </is>
       </c>
       <c r="E70" s="7" t="inlineStr">
         <is>
-          <t>500.000</t>
+          <t>4.000.000</t>
         </is>
       </c>
       <c r="F70" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" s="7" t="inlineStr">
         <is>
-          <t>225.000</t>
+          <t>800.000</t>
         </is>
       </c>
       <c r="H70" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="6" t="inlineStr">
         <is>
-          <t>TF0074</t>
+          <t>TF0004</t>
         </is>
       </c>
       <c r="B71" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 15:05:29</t>
+          <t>06-06-2025 08:48:47</t>
         </is>
       </c>
       <c r="C71" s="6" t="inlineStr">
         <is>
-          <t>M019</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D71" s="6" t="inlineStr">
         <is>
-          <t>Paket Jamail</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E71" s="7" t="inlineStr">
         <is>
-          <t>350.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F71" s="8" t="n">
@@ -3055,39 +3129,39 @@
       </c>
       <c r="G71" s="7" t="inlineStr">
         <is>
-          <t>150.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H71" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6" t="inlineStr">
         <is>
-          <t>TF0075</t>
+          <t>TF0004</t>
         </is>
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 15:09:27</t>
+          <t>06-06-2025 08:48:47</t>
         </is>
       </c>
       <c r="C72" s="6" t="inlineStr">
         <is>
-          <t>M019</t>
+          <t>M006</t>
         </is>
       </c>
       <c r="D72" s="6" t="inlineStr">
         <is>
-          <t>Paket Jamail</t>
+          <t>paket lontong</t>
         </is>
       </c>
       <c r="E72" s="7" t="inlineStr">
         <is>
-          <t>350.000</t>
+          <t>6.550.000</t>
         </is>
       </c>
       <c r="F72" s="8" t="n">
@@ -3100,34 +3174,34 @@
       </c>
       <c r="H72" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="6" t="inlineStr">
         <is>
-          <t>TF0076</t>
+          <t>TF0004</t>
         </is>
       </c>
       <c r="B73" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 15:13:13</t>
+          <t>06-06-2025 08:48:47</t>
         </is>
       </c>
       <c r="C73" s="6" t="inlineStr">
         <is>
-          <t>M019</t>
+          <t>M007</t>
         </is>
       </c>
       <c r="D73" s="6" t="inlineStr">
         <is>
-          <t>Paket Jamail</t>
+          <t>pasoaodkaosdoak</t>
         </is>
       </c>
       <c r="E73" s="7" t="inlineStr">
         <is>
-          <t>350.000</t>
+          <t>600.000</t>
         </is>
       </c>
       <c r="F73" s="8" t="n">
@@ -3135,139 +3209,4785 @@
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
-          <t>150.000</t>
+          <t>1.500.000</t>
         </is>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6" t="inlineStr">
         <is>
-          <t>TF0077</t>
+          <t>TF0004</t>
         </is>
       </c>
       <c r="B74" s="6" t="inlineStr">
         <is>
-          <t>15-06-2025 15:14:34</t>
+          <t>06-06-2025 08:48:47</t>
         </is>
       </c>
       <c r="C74" s="6" t="inlineStr">
         <is>
-          <t>M019</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D74" s="6" t="inlineStr">
         <is>
-          <t>Paket Jamail</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E74" s="7" t="inlineStr">
         <is>
-          <t>350.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F74" s="8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G74" s="7" t="inlineStr">
         <is>
-          <t>150.000</t>
+          <t>1.600.000</t>
         </is>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>Yola</t>
+          <t>Sasa</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="6" t="inlineStr">
         <is>
+          <t>TF0004</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>06-06-2025 08:48:47</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
+        <is>
+          <t>paket bajinurakaloman</t>
+        </is>
+      </c>
+      <c r="E75" s="7" t="inlineStr">
+        <is>
+          <t>4.000.000</t>
+        </is>
+      </c>
+      <c r="F75" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G75" s="7" t="inlineStr">
+        <is>
+          <t>2.000.000</t>
+        </is>
+      </c>
+      <c r="H75" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="inlineStr">
+        <is>
+          <t>TF0004</t>
+        </is>
+      </c>
+      <c r="B76" s="6" t="inlineStr">
+        <is>
+          <t>06-06-2025 08:48:47</t>
+        </is>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D76" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E76" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F76" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H76" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>TF0004</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>06-06-2025 08:48:47</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>paket lontong</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="inlineStr">
+        <is>
+          <t>6.550.000</t>
+        </is>
+      </c>
+      <c r="F77" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" s="7" t="inlineStr">
+        <is>
+          <t>600.000</t>
+        </is>
+      </c>
+      <c r="H77" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="inlineStr">
+        <is>
+          <t>TF0012</t>
+        </is>
+      </c>
+      <c r="B78" s="6" t="inlineStr">
+        <is>
+          <t>07-06-2025 23:34:31</t>
+        </is>
+      </c>
+      <c r="C78" s="6" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="D78" s="6" t="inlineStr">
+        <is>
+          <t>paket holiday</t>
+        </is>
+      </c>
+      <c r="E78" s="7" t="inlineStr">
+        <is>
+          <t>550.000</t>
+        </is>
+      </c>
+      <c r="F78" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="7" t="inlineStr">
+        <is>
+          <t>275.000</t>
+        </is>
+      </c>
+      <c r="H78" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>TF0012</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>07-06-2025 23:34:31</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E79" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F79" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H79" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="inlineStr">
+        <is>
+          <t>TF0012</t>
+        </is>
+      </c>
+      <c r="B80" s="6" t="inlineStr">
+        <is>
+          <t>07-06-2025 23:34:31</t>
+        </is>
+      </c>
+      <c r="C80" s="6" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="D80" s="6" t="inlineStr">
+        <is>
+          <t>paket lontong</t>
+        </is>
+      </c>
+      <c r="E80" s="7" t="inlineStr">
+        <is>
+          <t>6.550.000</t>
+        </is>
+      </c>
+      <c r="F80" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H80" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>TF0012</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>07-06-2025 23:34:31</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>E001</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="inlineStr">
+        <is>
+          <t>Extend 30 Min</t>
+        </is>
+      </c>
+      <c r="E81" s="7" t="inlineStr">
+        <is>
+          <t>200.000</t>
+        </is>
+      </c>
+      <c r="F81" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="7" t="inlineStr">
+        <is>
+          <t>25.000</t>
+        </is>
+      </c>
+      <c r="H81" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="inlineStr">
+        <is>
+          <t>TF0012</t>
+        </is>
+      </c>
+      <c r="B82" s="6" t="inlineStr">
+        <is>
+          <t>07-06-2025 23:34:31</t>
+        </is>
+      </c>
+      <c r="C82" s="6" t="inlineStr">
+        <is>
+          <t>P003</t>
+        </is>
+      </c>
+      <c r="D82" s="6" t="inlineStr">
+        <is>
+          <t>Hot Stone</t>
+        </is>
+      </c>
+      <c r="E82" s="7" t="inlineStr">
+        <is>
+          <t>350.000</t>
+        </is>
+      </c>
+      <c r="F82" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="7" t="inlineStr">
+        <is>
+          <t>35.000</t>
+        </is>
+      </c>
+      <c r="H82" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>TF0012</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>07-06-2025 23:34:31</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>P002</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="inlineStr">
+        <is>
+          <t>Hot Massage</t>
+        </is>
+      </c>
+      <c r="E83" s="7" t="inlineStr">
+        <is>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="F83" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="7" t="inlineStr">
+        <is>
+          <t>30.000</t>
+        </is>
+      </c>
+      <c r="H83" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="inlineStr">
+        <is>
+          <t>TF0012</t>
+        </is>
+      </c>
+      <c r="B84" s="6" t="inlineStr">
+        <is>
+          <t>07-06-2025 23:34:31</t>
+        </is>
+      </c>
+      <c r="C84" s="6" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="D84" s="6" t="inlineStr">
+        <is>
+          <t>Traditional Massage 30 Min</t>
+        </is>
+      </c>
+      <c r="E84" s="7" t="inlineStr">
+        <is>
+          <t>200.000</t>
+        </is>
+      </c>
+      <c r="F84" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="7" t="inlineStr">
+        <is>
+          <t>20.000</t>
+        </is>
+      </c>
+      <c r="H84" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="inlineStr">
+        <is>
+          <t>TF0053</t>
+        </is>
+      </c>
+      <c r="B85" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 12:58:55</t>
+        </is>
+      </c>
+      <c r="C85" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D85" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E85" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F85" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H85" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="inlineStr">
+        <is>
+          <t>TF0056</t>
+        </is>
+      </c>
+      <c r="B86" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 13:59:33</t>
+        </is>
+      </c>
+      <c r="C86" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D86" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E86" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F86" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H86" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="inlineStr">
+        <is>
+          <t>TF0058</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:05:31</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E87" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F87" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H87" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="inlineStr">
+        <is>
+          <t>TF0064</t>
+        </is>
+      </c>
+      <c r="B88" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:27:59</t>
+        </is>
+      </c>
+      <c r="C88" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D88" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E88" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F88" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H88" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="inlineStr">
+        <is>
+          <t>TF0073</t>
+        </is>
+      </c>
+      <c r="B89" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:52:39</t>
+        </is>
+      </c>
+      <c r="C89" s="6" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="D89" s="6" t="inlineStr">
+        <is>
+          <t>Paket Jamail</t>
+        </is>
+      </c>
+      <c r="E89" s="7" t="inlineStr">
+        <is>
+          <t>350.000</t>
+        </is>
+      </c>
+      <c r="F89" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H89" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="inlineStr">
+        <is>
+          <t>TF0095</t>
+        </is>
+      </c>
+      <c r="B90" s="6" t="inlineStr">
+        <is>
+          <t>24-07-2025 23:11:22</t>
+        </is>
+      </c>
+      <c r="C90" s="6" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="D90" s="6" t="inlineStr">
+        <is>
+          <t>paket holiday</t>
+        </is>
+      </c>
+      <c r="E90" s="7" t="inlineStr">
+        <is>
+          <t>550.000</t>
+        </is>
+      </c>
+      <c r="F90" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="7" t="inlineStr">
+        <is>
+          <t>275.000</t>
+        </is>
+      </c>
+      <c r="H90" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>TF0096</t>
+        </is>
+      </c>
+      <c r="B91" s="6" t="inlineStr">
+        <is>
+          <t>24-07-2025 23:21:16</t>
+        </is>
+      </c>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D91" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E91" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F91" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H91" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="inlineStr">
+        <is>
+          <t>TF0097</t>
+        </is>
+      </c>
+      <c r="B92" s="6" t="inlineStr">
+        <is>
+          <t>24-07-2025 23:27:44</t>
+        </is>
+      </c>
+      <c r="C92" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D92" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E92" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F92" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H92" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="inlineStr">
+        <is>
+          <t>TF0099</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
+        <is>
+          <t>24-07-2025 23:32:11</t>
+        </is>
+      </c>
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E93" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F93" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H93" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="inlineStr">
+        <is>
+          <t>TF0102</t>
+        </is>
+      </c>
+      <c r="B94" s="6" t="inlineStr">
+        <is>
+          <t>25-07-2025 00:37:55</t>
+        </is>
+      </c>
+      <c r="C94" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D94" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E94" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F94" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H94" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="inlineStr">
+        <is>
+          <t>TF0107</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="inlineStr">
+        <is>
+          <t>26-07-2025 21:51:13</t>
+        </is>
+      </c>
+      <c r="C95" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D95" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E95" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F95" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H95" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="inlineStr">
+        <is>
+          <t>TF0108</t>
+        </is>
+      </c>
+      <c r="B96" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 13:21:52</t>
+        </is>
+      </c>
+      <c r="C96" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D96" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E96" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F96" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H96" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>TF0109</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 13:24:11</t>
+        </is>
+      </c>
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E97" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F97" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H97" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="inlineStr">
+        <is>
+          <t>TF0110</t>
+        </is>
+      </c>
+      <c r="B98" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 13:28:09</t>
+        </is>
+      </c>
+      <c r="C98" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D98" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E98" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F98" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H98" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>TF0111</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 13:29:35</t>
+        </is>
+      </c>
+      <c r="C99" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D99" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E99" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F99" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H99" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="inlineStr">
+        <is>
+          <t>TF0112</t>
+        </is>
+      </c>
+      <c r="B100" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 13:35:17</t>
+        </is>
+      </c>
+      <c r="C100" s="6" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="D100" s="6" t="inlineStr">
+        <is>
+          <t>paket bajinurakaloman</t>
+        </is>
+      </c>
+      <c r="E100" s="7" t="inlineStr">
+        <is>
+          <t>4.000.000</t>
+        </is>
+      </c>
+      <c r="F100" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H100" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="inlineStr">
+        <is>
+          <t>TF0114</t>
+        </is>
+      </c>
+      <c r="B101" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 13:38:50</t>
+        </is>
+      </c>
+      <c r="C101" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D101" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E101" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F101" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H101" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="6" t="inlineStr">
+        <is>
+          <t>TF0115</t>
+        </is>
+      </c>
+      <c r="B102" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:00:35</t>
+        </is>
+      </c>
+      <c r="C102" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D102" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E102" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F102" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H102" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>TF0116</t>
+        </is>
+      </c>
+      <c r="B103" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:05:50</t>
+        </is>
+      </c>
+      <c r="C103" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D103" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E103" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F103" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H103" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="6" t="inlineStr">
+        <is>
+          <t>TF0116</t>
+        </is>
+      </c>
+      <c r="B104" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:05:50</t>
+        </is>
+      </c>
+      <c r="C104" s="6" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="D104" s="6" t="inlineStr">
+        <is>
+          <t>paket lontong</t>
+        </is>
+      </c>
+      <c r="E104" s="7" t="inlineStr">
+        <is>
+          <t>6.550.000</t>
+        </is>
+      </c>
+      <c r="F104" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H104" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="6" t="inlineStr">
+        <is>
+          <t>TF0116</t>
+        </is>
+      </c>
+      <c r="B105" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:05:50</t>
+        </is>
+      </c>
+      <c r="C105" s="6" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
+      <c r="D105" s="6" t="inlineStr">
+        <is>
+          <t>lasmladamaldk</t>
+        </is>
+      </c>
+      <c r="E105" s="7" t="inlineStr">
+        <is>
+          <t>5.000.000</t>
+        </is>
+      </c>
+      <c r="F105" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H105" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="6" t="inlineStr">
+        <is>
+          <t>TF0120</t>
+        </is>
+      </c>
+      <c r="B106" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:32:49</t>
+        </is>
+      </c>
+      <c r="C106" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D106" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E106" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F106" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H106" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="inlineStr">
+        <is>
+          <t>TF0121</t>
+        </is>
+      </c>
+      <c r="B107" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:35:46</t>
+        </is>
+      </c>
+      <c r="C107" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D107" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E107" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F107" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" s="7" t="inlineStr">
+        <is>
+          <t>450.000</t>
+        </is>
+      </c>
+      <c r="H107" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="6" t="inlineStr">
+        <is>
+          <t>TF0123</t>
+        </is>
+      </c>
+      <c r="B108" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:43:10</t>
+        </is>
+      </c>
+      <c r="C108" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D108" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E108" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F108" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H108" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="inlineStr">
+        <is>
+          <t>TF0124</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:48:51</t>
+        </is>
+      </c>
+      <c r="C109" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D109" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E109" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F109" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H109" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="6" t="inlineStr">
+        <is>
+          <t>TF0125</t>
+        </is>
+      </c>
+      <c r="B110" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:55:07</t>
+        </is>
+      </c>
+      <c r="C110" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D110" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E110" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F110" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H110" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="inlineStr">
+        <is>
+          <t>TF0128</t>
+        </is>
+      </c>
+      <c r="B111" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 15:12:22</t>
+        </is>
+      </c>
+      <c r="C111" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D111" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E111" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F111" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H111" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="6" t="inlineStr">
+        <is>
+          <t>TF0129</t>
+        </is>
+      </c>
+      <c r="B112" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 15:15:52</t>
+        </is>
+      </c>
+      <c r="C112" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D112" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E112" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F112" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H112" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="inlineStr">
+        <is>
+          <t>TF0130</t>
+        </is>
+      </c>
+      <c r="B113" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 15:17:35</t>
+        </is>
+      </c>
+      <c r="C113" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D113" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E113" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F113" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H113" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="6" t="inlineStr">
+        <is>
+          <t>TF0132</t>
+        </is>
+      </c>
+      <c r="B114" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 15:23:21</t>
+        </is>
+      </c>
+      <c r="C114" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D114" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E114" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F114" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H114" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="inlineStr">
+        <is>
+          <t>TF0141</t>
+        </is>
+      </c>
+      <c r="B115" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 15:42:32</t>
+        </is>
+      </c>
+      <c r="C115" s="6" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="D115" s="6" t="inlineStr">
+        <is>
+          <t>paket lontong</t>
+        </is>
+      </c>
+      <c r="E115" s="7" t="inlineStr">
+        <is>
+          <t>6.550.000</t>
+        </is>
+      </c>
+      <c r="F115" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H115" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="6" t="inlineStr">
+        <is>
+          <t>TF0145</t>
+        </is>
+      </c>
+      <c r="B116" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 16:32:21</t>
+        </is>
+      </c>
+      <c r="C116" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D116" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E116" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F116" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H116" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="6" t="inlineStr">
+        <is>
+          <t>TF0145</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 16:32:21</t>
+        </is>
+      </c>
+      <c r="C117" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D117" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E117" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F117" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H117" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="6" t="inlineStr">
+        <is>
+          <t>TF0150</t>
+        </is>
+      </c>
+      <c r="B118" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 16:43:36</t>
+        </is>
+      </c>
+      <c r="C118" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D118" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E118" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F118" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H118" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="6" t="inlineStr">
+        <is>
+          <t>TF0155</t>
+        </is>
+      </c>
+      <c r="B119" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 16:58:10</t>
+        </is>
+      </c>
+      <c r="C119" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D119" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E119" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F119" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H119" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="6" t="inlineStr">
+        <is>
+          <t>TF0163</t>
+        </is>
+      </c>
+      <c r="B120" s="6" t="inlineStr">
+        <is>
+          <t>31-08-2025 18:26:59</t>
+        </is>
+      </c>
+      <c r="C120" s="6" t="inlineStr">
+        <is>
+          <t>P002</t>
+        </is>
+      </c>
+      <c r="D120" s="6" t="inlineStr">
+        <is>
+          <t>Hot Massage</t>
+        </is>
+      </c>
+      <c r="E120" s="7" t="inlineStr">
+        <is>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="F120" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" s="7" t="inlineStr">
+        <is>
+          <t>30.000</t>
+        </is>
+      </c>
+      <c r="H120" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="inlineStr">
+        <is>
+          <t>TF0163</t>
+        </is>
+      </c>
+      <c r="B121" s="6" t="inlineStr">
+        <is>
+          <t>31-08-2025 18:26:59</t>
+        </is>
+      </c>
+      <c r="C121" s="6" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="D121" s="6" t="inlineStr">
+        <is>
+          <t>Traditional Massage 30 Min</t>
+        </is>
+      </c>
+      <c r="E121" s="7" t="inlineStr">
+        <is>
+          <t>200.000</t>
+        </is>
+      </c>
+      <c r="F121" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" s="7" t="inlineStr">
+        <is>
+          <t>20.000</t>
+        </is>
+      </c>
+      <c r="H121" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="6" t="inlineStr">
+        <is>
+          <t>TF0163</t>
+        </is>
+      </c>
+      <c r="B122" s="6" t="inlineStr">
+        <is>
+          <t>31-08-2025 18:26:59</t>
+        </is>
+      </c>
+      <c r="C122" s="6" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="D122" s="6" t="inlineStr">
+        <is>
+          <t>paket bajinurakaloman</t>
+        </is>
+      </c>
+      <c r="E122" s="7" t="inlineStr">
+        <is>
+          <t>4.000.000</t>
+        </is>
+      </c>
+      <c r="F122" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H122" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6" t="inlineStr">
+        <is>
+          <t>TF0163</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="inlineStr">
+        <is>
+          <t>31-08-2025 18:26:59</t>
+        </is>
+      </c>
+      <c r="C123" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D123" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E123" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F123" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H123" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="6" t="inlineStr">
+        <is>
+          <t>TF0163</t>
+        </is>
+      </c>
+      <c r="B124" s="6" t="inlineStr">
+        <is>
+          <t>31-08-2025 18:26:59</t>
+        </is>
+      </c>
+      <c r="C124" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D124" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E124" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F124" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H124" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B125" s="6" t="n"/>
+      <c r="C125" s="6" t="n"/>
+      <c r="D125" s="6" t="n"/>
+      <c r="E125" s="6" t="n"/>
+      <c r="F125" s="9" t="inlineStr"/>
+      <c r="G125" s="10" t="inlineStr">
+        <is>
+          <t>25.360.000</t>
+        </is>
+      </c>
+      <c r="H125" s="9" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="6" t="n"/>
+      <c r="B126" s="6" t="n"/>
+      <c r="C126" s="6" t="n"/>
+      <c r="D126" s="6" t="n"/>
+      <c r="E126" s="6" t="n"/>
+      <c r="F126" s="6" t="n"/>
+      <c r="G126" s="6" t="n"/>
+      <c r="H126" s="6" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="6" t="inlineStr">
+        <is>
+          <t>Terapis :</t>
+        </is>
+      </c>
+      <c r="B127" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+      <c r="C127" s="6" t="n"/>
+      <c r="D127" s="6" t="n"/>
+      <c r="E127" s="6" t="n"/>
+      <c r="F127" s="6" t="n"/>
+      <c r="G127" s="6" t="n"/>
+      <c r="H127" s="6" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="6" t="inlineStr">
+        <is>
+          <t>TF0052</t>
+        </is>
+      </c>
+      <c r="B128" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 12:51:24</t>
+        </is>
+      </c>
+      <c r="C128" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D128" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E128" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F128" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H128" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6" t="inlineStr">
+        <is>
+          <t>TF0055</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 13:57:05</t>
+        </is>
+      </c>
+      <c r="C129" s="6" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="D129" s="6" t="inlineStr">
+        <is>
+          <t>paket holiday</t>
+        </is>
+      </c>
+      <c r="E129" s="7" t="inlineStr">
+        <is>
+          <t>550.000</t>
+        </is>
+      </c>
+      <c r="F129" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" s="7" t="inlineStr">
+        <is>
+          <t>275.000</t>
+        </is>
+      </c>
+      <c r="H129" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="6" t="inlineStr">
+        <is>
+          <t>TF0059</t>
+        </is>
+      </c>
+      <c r="B130" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:12:46</t>
+        </is>
+      </c>
+      <c r="C130" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D130" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E130" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F130" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H130" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>TF0060</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:17:53</t>
+        </is>
+      </c>
+      <c r="C131" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D131" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E131" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F131" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H131" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="6" t="inlineStr">
+        <is>
+          <t>TF0061</t>
+        </is>
+      </c>
+      <c r="B132" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:21:05</t>
+        </is>
+      </c>
+      <c r="C132" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D132" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E132" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F132" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H132" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="inlineStr">
+        <is>
+          <t>TF0062</t>
+        </is>
+      </c>
+      <c r="B133" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:23:54</t>
+        </is>
+      </c>
+      <c r="C133" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D133" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E133" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F133" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H133" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="6" t="inlineStr">
+        <is>
+          <t>TF0063</t>
+        </is>
+      </c>
+      <c r="B134" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:25:36</t>
+        </is>
+      </c>
+      <c r="C134" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D134" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E134" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F134" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H134" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6" t="inlineStr">
+        <is>
+          <t>TF0065</t>
+        </is>
+      </c>
+      <c r="B135" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:29:12</t>
+        </is>
+      </c>
+      <c r="C135" s="6" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="D135" s="6" t="inlineStr">
+        <is>
+          <t>Paket Jamail</t>
+        </is>
+      </c>
+      <c r="E135" s="7" t="inlineStr">
+        <is>
+          <t>350.000</t>
+        </is>
+      </c>
+      <c r="F135" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H135" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="6" t="inlineStr">
+        <is>
+          <t>TF0066</t>
+        </is>
+      </c>
+      <c r="B136" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:30:00</t>
+        </is>
+      </c>
+      <c r="C136" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D136" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E136" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F136" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H136" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6" t="inlineStr">
+        <is>
+          <t>TF0067</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:31:00</t>
+        </is>
+      </c>
+      <c r="C137" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D137" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E137" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F137" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H137" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="6" t="inlineStr">
+        <is>
+          <t>TF0068</t>
+        </is>
+      </c>
+      <c r="B138" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:33:27</t>
+        </is>
+      </c>
+      <c r="C138" s="6" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="D138" s="6" t="inlineStr">
+        <is>
+          <t>Paket Jamail</t>
+        </is>
+      </c>
+      <c r="E138" s="7" t="inlineStr">
+        <is>
+          <t>350.000</t>
+        </is>
+      </c>
+      <c r="F138" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H138" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6" t="inlineStr">
+        <is>
+          <t>TF0069</t>
+        </is>
+      </c>
+      <c r="B139" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:35:15</t>
+        </is>
+      </c>
+      <c r="C139" s="6" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="D139" s="6" t="inlineStr">
+        <is>
+          <t>Paket Jamail</t>
+        </is>
+      </c>
+      <c r="E139" s="7" t="inlineStr">
+        <is>
+          <t>350.000</t>
+        </is>
+      </c>
+      <c r="F139" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H139" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="6" t="inlineStr">
+        <is>
+          <t>TF0071</t>
+        </is>
+      </c>
+      <c r="B140" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:46:23</t>
+        </is>
+      </c>
+      <c r="C140" s="6" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="D140" s="6" t="inlineStr">
+        <is>
+          <t>Paket Jamail</t>
+        </is>
+      </c>
+      <c r="E140" s="7" t="inlineStr">
+        <is>
+          <t>350.000</t>
+        </is>
+      </c>
+      <c r="F140" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H140" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="6" t="inlineStr">
+        <is>
+          <t>TF0072</t>
+        </is>
+      </c>
+      <c r="B141" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 14:51:13</t>
+        </is>
+      </c>
+      <c r="C141" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D141" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E141" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F141" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H141" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="6" t="inlineStr">
+        <is>
+          <t>TF0074</t>
+        </is>
+      </c>
+      <c r="B142" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 15:05:29</t>
+        </is>
+      </c>
+      <c r="C142" s="6" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="D142" s="6" t="inlineStr">
+        <is>
+          <t>Paket Jamail</t>
+        </is>
+      </c>
+      <c r="E142" s="7" t="inlineStr">
+        <is>
+          <t>350.000</t>
+        </is>
+      </c>
+      <c r="F142" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H142" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="6" t="inlineStr">
+        <is>
+          <t>TF0075</t>
+        </is>
+      </c>
+      <c r="B143" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 15:09:27</t>
+        </is>
+      </c>
+      <c r="C143" s="6" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="D143" s="6" t="inlineStr">
+        <is>
+          <t>Paket Jamail</t>
+        </is>
+      </c>
+      <c r="E143" s="7" t="inlineStr">
+        <is>
+          <t>350.000</t>
+        </is>
+      </c>
+      <c r="F143" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H143" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="6" t="inlineStr">
+        <is>
+          <t>TF0076</t>
+        </is>
+      </c>
+      <c r="B144" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 15:13:13</t>
+        </is>
+      </c>
+      <c r="C144" s="6" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="D144" s="6" t="inlineStr">
+        <is>
+          <t>Paket Jamail</t>
+        </is>
+      </c>
+      <c r="E144" s="7" t="inlineStr">
+        <is>
+          <t>350.000</t>
+        </is>
+      </c>
+      <c r="F144" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H144" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="6" t="inlineStr">
+        <is>
+          <t>TF0077</t>
+        </is>
+      </c>
+      <c r="B145" s="6" t="inlineStr">
+        <is>
+          <t>15-06-2025 15:14:34</t>
+        </is>
+      </c>
+      <c r="C145" s="6" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="D145" s="6" t="inlineStr">
+        <is>
+          <t>Paket Jamail</t>
+        </is>
+      </c>
+      <c r="E145" s="7" t="inlineStr">
+        <is>
+          <t>350.000</t>
+        </is>
+      </c>
+      <c r="F145" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H145" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="6" t="inlineStr">
+        <is>
           <t>TF0078</t>
         </is>
       </c>
-      <c r="B75" s="6" t="inlineStr">
+      <c r="B146" s="6" t="inlineStr">
         <is>
           <t>15-06-2025 15:16:46</t>
         </is>
       </c>
-      <c r="C75" s="6" t="inlineStr">
+      <c r="C146" s="6" t="inlineStr">
         <is>
           <t>M002</t>
         </is>
       </c>
-      <c r="D75" s="6" t="inlineStr">
+      <c r="D146" s="6" t="inlineStr">
         <is>
           <t>Paket Sejahteramana</t>
         </is>
       </c>
-      <c r="E75" s="7" t="inlineStr">
-        <is>
-          <t>500.000</t>
-        </is>
-      </c>
-      <c r="F75" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="7" t="inlineStr">
-        <is>
-          <t>400.000</t>
-        </is>
-      </c>
-      <c r="H75" s="6" t="inlineStr">
+      <c r="E146" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F146" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H146" s="6" t="inlineStr">
         <is>
           <t>Yola</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="9" t="inlineStr">
+    <row r="147">
+      <c r="A147" s="6" t="inlineStr">
+        <is>
+          <t>TF0096</t>
+        </is>
+      </c>
+      <c r="B147" s="6" t="inlineStr">
+        <is>
+          <t>24-07-2025 23:21:16</t>
+        </is>
+      </c>
+      <c r="C147" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D147" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E147" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F147" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H147" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="6" t="inlineStr">
+        <is>
+          <t>TF0097</t>
+        </is>
+      </c>
+      <c r="B148" s="6" t="inlineStr">
+        <is>
+          <t>24-07-2025 23:27:44</t>
+        </is>
+      </c>
+      <c r="C148" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D148" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E148" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F148" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H148" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="6" t="inlineStr">
+        <is>
+          <t>TF0099</t>
+        </is>
+      </c>
+      <c r="B149" s="6" t="inlineStr">
+        <is>
+          <t>24-07-2025 23:32:11</t>
+        </is>
+      </c>
+      <c r="C149" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D149" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E149" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F149" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H149" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="6" t="inlineStr">
+        <is>
+          <t>TF0101</t>
+        </is>
+      </c>
+      <c r="B150" s="6" t="inlineStr">
+        <is>
+          <t>25-07-2025 00:31:08</t>
+        </is>
+      </c>
+      <c r="C150" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D150" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E150" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F150" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H150" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="6" t="inlineStr">
+        <is>
+          <t>TF0103</t>
+        </is>
+      </c>
+      <c r="B151" s="6" t="inlineStr">
+        <is>
+          <t>25-07-2025 00:38:46</t>
+        </is>
+      </c>
+      <c r="C151" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D151" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E151" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F151" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H151" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="6" t="inlineStr">
+        <is>
+          <t>TF0105</t>
+        </is>
+      </c>
+      <c r="B152" s="6" t="inlineStr">
+        <is>
+          <t>26-07-2025 21:49:18</t>
+        </is>
+      </c>
+      <c r="C152" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D152" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E152" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F152" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H152" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6" t="inlineStr">
+        <is>
+          <t>TF0106</t>
+        </is>
+      </c>
+      <c r="B153" s="6" t="inlineStr">
+        <is>
+          <t>26-07-2025 21:50:56</t>
+        </is>
+      </c>
+      <c r="C153" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D153" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E153" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F153" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H153" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="6" t="inlineStr">
+        <is>
+          <t>TF0108</t>
+        </is>
+      </c>
+      <c r="B154" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 13:21:52</t>
+        </is>
+      </c>
+      <c r="C154" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D154" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E154" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F154" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H154" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="6" t="inlineStr">
+        <is>
+          <t>TF0109</t>
+        </is>
+      </c>
+      <c r="B155" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 13:24:11</t>
+        </is>
+      </c>
+      <c r="C155" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D155" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E155" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F155" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H155" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="6" t="inlineStr">
+        <is>
+          <t>TF0110</t>
+        </is>
+      </c>
+      <c r="B156" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 13:28:09</t>
+        </is>
+      </c>
+      <c r="C156" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D156" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E156" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F156" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H156" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="6" t="inlineStr">
+        <is>
+          <t>TF0111</t>
+        </is>
+      </c>
+      <c r="B157" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 13:29:35</t>
+        </is>
+      </c>
+      <c r="C157" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D157" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E157" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F157" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H157" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="6" t="inlineStr">
+        <is>
+          <t>TF0112</t>
+        </is>
+      </c>
+      <c r="B158" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 13:35:17</t>
+        </is>
+      </c>
+      <c r="C158" s="6" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="D158" s="6" t="inlineStr">
+        <is>
+          <t>paket bajinurakaloman</t>
+        </is>
+      </c>
+      <c r="E158" s="7" t="inlineStr">
+        <is>
+          <t>4.000.000</t>
+        </is>
+      </c>
+      <c r="F158" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H158" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="6" t="inlineStr">
+        <is>
+          <t>TF0113</t>
+        </is>
+      </c>
+      <c r="B159" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 13:37:50</t>
+        </is>
+      </c>
+      <c r="C159" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D159" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E159" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F159" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H159" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="6" t="inlineStr">
+        <is>
+          <t>TF0114</t>
+        </is>
+      </c>
+      <c r="B160" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 13:38:50</t>
+        </is>
+      </c>
+      <c r="C160" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D160" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E160" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F160" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H160" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="6" t="inlineStr">
+        <is>
+          <t>TF0115</t>
+        </is>
+      </c>
+      <c r="B161" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:00:35</t>
+        </is>
+      </c>
+      <c r="C161" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D161" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E161" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F161" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H161" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="6" t="inlineStr">
+        <is>
+          <t>TF0116</t>
+        </is>
+      </c>
+      <c r="B162" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:05:50</t>
+        </is>
+      </c>
+      <c r="C162" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D162" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E162" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F162" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H162" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="6" t="inlineStr">
+        <is>
+          <t>TF0116</t>
+        </is>
+      </c>
+      <c r="B163" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:05:50</t>
+        </is>
+      </c>
+      <c r="C163" s="6" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="D163" s="6" t="inlineStr">
+        <is>
+          <t>paket lontong</t>
+        </is>
+      </c>
+      <c r="E163" s="7" t="inlineStr">
+        <is>
+          <t>6.550.000</t>
+        </is>
+      </c>
+      <c r="F163" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H163" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="6" t="inlineStr">
+        <is>
+          <t>TF0116</t>
+        </is>
+      </c>
+      <c r="B164" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:05:50</t>
+        </is>
+      </c>
+      <c r="C164" s="6" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
+      <c r="D164" s="6" t="inlineStr">
+        <is>
+          <t>lasmladamaldk</t>
+        </is>
+      </c>
+      <c r="E164" s="7" t="inlineStr">
+        <is>
+          <t>5.000.000</t>
+        </is>
+      </c>
+      <c r="F164" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" s="7" t="inlineStr">
+        <is>
+          <t>150.000</t>
+        </is>
+      </c>
+      <c r="H164" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="6" t="inlineStr">
+        <is>
+          <t>TF0120</t>
+        </is>
+      </c>
+      <c r="B165" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:32:49</t>
+        </is>
+      </c>
+      <c r="C165" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D165" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E165" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F165" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H165" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="6" t="inlineStr">
+        <is>
+          <t>TF0121</t>
+        </is>
+      </c>
+      <c r="B166" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:35:46</t>
+        </is>
+      </c>
+      <c r="C166" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D166" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E166" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F166" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G166" s="7" t="inlineStr">
+        <is>
+          <t>450.000</t>
+        </is>
+      </c>
+      <c r="H166" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="6" t="inlineStr">
+        <is>
+          <t>TF0123</t>
+        </is>
+      </c>
+      <c r="B167" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:43:10</t>
+        </is>
+      </c>
+      <c r="C167" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D167" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E167" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F167" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H167" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="6" t="inlineStr">
+        <is>
+          <t>TF0124</t>
+        </is>
+      </c>
+      <c r="B168" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:48:51</t>
+        </is>
+      </c>
+      <c r="C168" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D168" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E168" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F168" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H168" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="6" t="inlineStr">
+        <is>
+          <t>TF0125</t>
+        </is>
+      </c>
+      <c r="B169" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 14:55:07</t>
+        </is>
+      </c>
+      <c r="C169" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D169" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E169" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F169" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H169" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="6" t="inlineStr">
+        <is>
+          <t>TF0128</t>
+        </is>
+      </c>
+      <c r="B170" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 15:12:22</t>
+        </is>
+      </c>
+      <c r="C170" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D170" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E170" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F170" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H170" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="6" t="inlineStr">
+        <is>
+          <t>TF0129</t>
+        </is>
+      </c>
+      <c r="B171" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 15:15:52</t>
+        </is>
+      </c>
+      <c r="C171" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D171" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E171" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F171" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H171" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="6" t="inlineStr">
+        <is>
+          <t>TF0130</t>
+        </is>
+      </c>
+      <c r="B172" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 15:17:35</t>
+        </is>
+      </c>
+      <c r="C172" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D172" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E172" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F172" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H172" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="6" t="inlineStr">
+        <is>
+          <t>TF0132</t>
+        </is>
+      </c>
+      <c r="B173" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 15:23:21</t>
+        </is>
+      </c>
+      <c r="C173" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D173" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E173" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F173" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H173" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="6" t="inlineStr">
+        <is>
+          <t>TF0133</t>
+        </is>
+      </c>
+      <c r="B174" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 15:25:00</t>
+        </is>
+      </c>
+      <c r="C174" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D174" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E174" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F174" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H174" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="6" t="inlineStr">
+        <is>
+          <t>TF0134</t>
+        </is>
+      </c>
+      <c r="B175" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 15:26:58</t>
+        </is>
+      </c>
+      <c r="C175" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D175" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E175" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F175" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H175" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="6" t="inlineStr">
+        <is>
+          <t>TF0137</t>
+        </is>
+      </c>
+      <c r="B176" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 15:36:17</t>
+        </is>
+      </c>
+      <c r="C176" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D176" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E176" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F176" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H176" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="6" t="inlineStr">
+        <is>
+          <t>TF0139</t>
+        </is>
+      </c>
+      <c r="B177" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 15:38:32</t>
+        </is>
+      </c>
+      <c r="C177" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D177" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E177" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F177" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H177" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="6" t="inlineStr">
+        <is>
+          <t>TF0142</t>
+        </is>
+      </c>
+      <c r="B178" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 16:26:27</t>
+        </is>
+      </c>
+      <c r="C178" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D178" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E178" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F178" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H178" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="6" t="inlineStr">
+        <is>
+          <t>TF0144</t>
+        </is>
+      </c>
+      <c r="B179" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 16:31:07</t>
+        </is>
+      </c>
+      <c r="C179" s="6" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="D179" s="6" t="inlineStr">
+        <is>
+          <t>paket holiday</t>
+        </is>
+      </c>
+      <c r="E179" s="7" t="inlineStr">
+        <is>
+          <t>550.000</t>
+        </is>
+      </c>
+      <c r="F179" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" s="7" t="inlineStr">
+        <is>
+          <t>275.000</t>
+        </is>
+      </c>
+      <c r="H179" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="6" t="inlineStr">
+        <is>
+          <t>TF0147</t>
+        </is>
+      </c>
+      <c r="B180" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 16:36:27</t>
+        </is>
+      </c>
+      <c r="C180" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D180" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E180" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F180" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H180" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="6" t="inlineStr">
+        <is>
+          <t>TF0149</t>
+        </is>
+      </c>
+      <c r="B181" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 16:39:27</t>
+        </is>
+      </c>
+      <c r="C181" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D181" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E181" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F181" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H181" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="6" t="inlineStr">
+        <is>
+          <t>TF0152</t>
+        </is>
+      </c>
+      <c r="B182" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 16:48:31</t>
+        </is>
+      </c>
+      <c r="C182" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D182" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E182" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F182" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H182" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="6" t="inlineStr">
+        <is>
+          <t>TF0154</t>
+        </is>
+      </c>
+      <c r="B183" s="6" t="inlineStr">
+        <is>
+          <t>27-07-2025 16:56:27</t>
+        </is>
+      </c>
+      <c r="C183" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D183" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E183" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F183" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H183" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="6" t="inlineStr">
+        <is>
+          <t>TF0157</t>
+        </is>
+      </c>
+      <c r="B184" s="6" t="inlineStr">
+        <is>
+          <t>29-07-2025 12:05:08</t>
+        </is>
+      </c>
+      <c r="C184" s="6" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="D184" s="6" t="inlineStr">
+        <is>
+          <t>Traditional Massage 30 Min</t>
+        </is>
+      </c>
+      <c r="E184" s="7" t="inlineStr">
+        <is>
+          <t>200.000</t>
+        </is>
+      </c>
+      <c r="F184" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" s="7" t="inlineStr">
+        <is>
+          <t>20.000</t>
+        </is>
+      </c>
+      <c r="H184" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="6" t="inlineStr">
+        <is>
+          <t>TF0157</t>
+        </is>
+      </c>
+      <c r="B185" s="6" t="inlineStr">
+        <is>
+          <t>29-07-2025 12:05:08</t>
+        </is>
+      </c>
+      <c r="C185" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D185" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E185" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F185" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H185" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="6" t="inlineStr">
+        <is>
+          <t>TF0157</t>
+        </is>
+      </c>
+      <c r="B186" s="6" t="inlineStr">
+        <is>
+          <t>29-07-2025 12:05:08</t>
+        </is>
+      </c>
+      <c r="C186" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D186" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E186" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F186" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H186" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="6" t="inlineStr">
+        <is>
+          <t>TF0157</t>
+        </is>
+      </c>
+      <c r="B187" s="6" t="inlineStr">
+        <is>
+          <t>29-07-2025 12:05:08</t>
+        </is>
+      </c>
+      <c r="C187" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D187" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E187" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F187" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H187" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="6" t="inlineStr">
+        <is>
+          <t>TF0157</t>
+        </is>
+      </c>
+      <c r="B188" s="6" t="inlineStr">
+        <is>
+          <t>29-07-2025 12:05:08</t>
+        </is>
+      </c>
+      <c r="C188" s="6" t="inlineStr">
+        <is>
+          <t>P002</t>
+        </is>
+      </c>
+      <c r="D188" s="6" t="inlineStr">
+        <is>
+          <t>Hot Massage</t>
+        </is>
+      </c>
+      <c r="E188" s="7" t="inlineStr">
+        <is>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="F188" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" s="7" t="inlineStr">
+        <is>
+          <t>30.000</t>
+        </is>
+      </c>
+      <c r="H188" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="6" t="inlineStr">
+        <is>
+          <t>TF0163</t>
+        </is>
+      </c>
+      <c r="B189" s="6" t="inlineStr">
+        <is>
+          <t>31-08-2025 18:26:59</t>
+        </is>
+      </c>
+      <c r="C189" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D189" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E189" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F189" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" s="7" t="inlineStr">
+        <is>
+          <t>225.000</t>
+        </is>
+      </c>
+      <c r="H189" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="6" t="inlineStr">
+        <is>
+          <t>TF0163</t>
+        </is>
+      </c>
+      <c r="B190" s="6" t="inlineStr">
+        <is>
+          <t>31-08-2025 18:26:59</t>
+        </is>
+      </c>
+      <c r="C190" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D190" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E190" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F190" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H190" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="6" t="inlineStr">
+        <is>
+          <t>TF0163</t>
+        </is>
+      </c>
+      <c r="B191" s="6" t="inlineStr">
+        <is>
+          <t>31-08-2025 18:26:59</t>
+        </is>
+      </c>
+      <c r="C191" s="6" t="inlineStr">
+        <is>
+          <t>P002</t>
+        </is>
+      </c>
+      <c r="D191" s="6" t="inlineStr">
+        <is>
+          <t>Hot Massage</t>
+        </is>
+      </c>
+      <c r="E191" s="7" t="inlineStr">
+        <is>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="F191" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G191" s="7" t="inlineStr">
+        <is>
+          <t>30.000</t>
+        </is>
+      </c>
+      <c r="H191" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="6" t="inlineStr">
+        <is>
+          <t>TF0163</t>
+        </is>
+      </c>
+      <c r="B192" s="6" t="inlineStr">
+        <is>
+          <t>31-08-2025 18:26:59</t>
+        </is>
+      </c>
+      <c r="C192" s="6" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="D192" s="6" t="inlineStr">
+        <is>
+          <t>Traditional Massage 30 Min</t>
+        </is>
+      </c>
+      <c r="E192" s="7" t="inlineStr">
+        <is>
+          <t>200.000</t>
+        </is>
+      </c>
+      <c r="F192" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G192" s="7" t="inlineStr">
+        <is>
+          <t>20.000</t>
+        </is>
+      </c>
+      <c r="H192" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="6" t="inlineStr">
+        <is>
+          <t>TF0163</t>
+        </is>
+      </c>
+      <c r="B193" s="6" t="inlineStr">
+        <is>
+          <t>31-08-2025 18:26:59</t>
+        </is>
+      </c>
+      <c r="C193" s="6" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="D193" s="6" t="inlineStr">
+        <is>
+          <t>paket bajinurakaloman</t>
+        </is>
+      </c>
+      <c r="E193" s="7" t="inlineStr">
+        <is>
+          <t>4.000.000</t>
+        </is>
+      </c>
+      <c r="F193" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H193" s="6" t="inlineStr">
+        <is>
+          <t>Yola</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="9" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B76" s="6" t="n"/>
-      <c r="C76" s="6" t="n"/>
-      <c r="D76" s="6" t="n"/>
-      <c r="E76" s="6" t="n"/>
-      <c r="F76" s="9" t="inlineStr"/>
-      <c r="G76" s="10" t="inlineStr">
-        <is>
-          <t>4.775.000</t>
-        </is>
-      </c>
-      <c r="H76" s="9" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="inlineStr">
+      <c r="B194" s="6" t="n"/>
+      <c r="C194" s="6" t="n"/>
+      <c r="D194" s="6" t="n"/>
+      <c r="E194" s="6" t="n"/>
+      <c r="F194" s="9" t="inlineStr"/>
+      <c r="G194" s="10" t="inlineStr">
+        <is>
+          <t>19.575.000</t>
+        </is>
+      </c>
+      <c r="H194" s="9" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="5" t="inlineStr">
         <is>
           <t>TOTAL SELURUH KOMISI</t>
         </is>
       </c>
-      <c r="B79" s="5" t="n"/>
-      <c r="C79" s="5" t="inlineStr"/>
-      <c r="D79" s="5" t="inlineStr"/>
-      <c r="E79" s="5" t="inlineStr"/>
-      <c r="F79" s="5" t="inlineStr"/>
-      <c r="G79" s="5" t="inlineStr">
-        <is>
-          <t>24.065.000</t>
-        </is>
-      </c>
-      <c r="H79" s="11" t="n"/>
+      <c r="B197" s="5" t="n"/>
+      <c r="C197" s="5" t="inlineStr"/>
+      <c r="D197" s="5" t="inlineStr"/>
+      <c r="E197" s="5" t="inlineStr"/>
+      <c r="F197" s="5" t="inlineStr"/>
+      <c r="G197" s="5" t="inlineStr">
+        <is>
+          <t>59.675.000</t>
+        </is>
+      </c>
+      <c r="H197" s="11" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A125:E125"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A194:E194"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A79:B79"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
